--- a/Aluminum/1 MONTH/20226/comparison.xlsx
+++ b/Aluminum/1 MONTH/20226/comparison.xlsx
@@ -420,10 +420,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>3.29</v>
+        <v>3.24</v>
       </c>
       <c r="D2">
-        <v>0.62</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -434,7 +434,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>5.81</v>
+        <v>5.88</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>8.32</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -462,7 +462,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>9.31</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -476,7 +476,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>13.95</v>
+        <v>16.33</v>
       </c>
       <c r="D6">
         <v>0</v>
